--- a/Income/SNAP_inc.xlsx
+++ b/Income/SNAP_inc.xlsx
@@ -1130,16 +1130,16 @@
         <v>0.5025</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4836</v>
+        <v>0.4909</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.466</v>
+        <v>0.4742</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4741</v>
+        <v>0.4826</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4686</v>
+        <v>0.4778</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4462</v>
@@ -1394,16 +1394,16 @@
         <v>-0.0701</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-0.09</v>
+        <v>-0.0889</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-0.1166</v>
+        <v>-0.1154</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-0.1381</v>
+        <v>-0.1368</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.2004</v>
+        <v>-0.199</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>-0.2682</v>
@@ -1920,16 +1920,16 @@
         <v>-0.3053</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>-0.3821</v>
+        <v>-0.4232</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-0.4572</v>
+        <v>-0.5033</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>-0.4695</v>
+        <v>-0.5172</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-0.5303</v>
+        <v>-0.5819</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>-0.6143</v>
@@ -1986,16 +1986,16 @@
         <v>-0.047</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-0.0666</v>
+        <v>-0.0655</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-0.0939</v>
+        <v>-0.0927</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>-0.1189</v>
+        <v>-0.1176</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>-0.1792</v>
+        <v>-0.1778</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>-0.2358</v>
